--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Roscoe_Rede_Stebbing/Thomas_Roscoe_Rede_Stebbing.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Roscoe_Rede_Stebbing/Thomas_Roscoe_Rede_Stebbing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Roscoe Rede Stebbing est un prêtre et un naturaliste britannique, né le 6 février 1835 à Londres et mort le 8 juillet 1926 à Royal Tunbridge Wells.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du poète, historien et homme d’Église Henry Stebbing (1799-1883). Il fait ses études au King’s College de Londres où il obtient son Bachelor of Arts en 1855. Il est ordonné prêtre en 1859. Il complète ses maigres revenus en devenant précepteur notamment à Reigate à partir de 1863. Là, il rencontre le botaniste et entomologiste William Wilson Saunders (1809-1879) et se marie avec sa fille, Mary Anne, en 1867. Le jeune couple emménage alors à Torquay où il retrouve un groupe de naturalistes parmi lequel le géologue William Pengelly (1812-1894).
 C’est à ce moment, qu’il découvre la théorie de l’évolution de Charles Darwin (1809-1882) et en devient un ardent défenseur. Il fait paraître de très nombreuses publications pour analyser et défaire les arguments des opposants. Pour Stebbing, Darwin a changé le monde et créé une ère nouvelle.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Biographie en anglais sur le site du King’s College de Londres</t>
         </is>
